--- a/Input/Project information_template.xlsx
+++ b/Input/Project information_template.xlsx
@@ -1,21 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ox2-my.sharepoint.com/personal/mojtaba_jabbari_ghadi_ox2_com/Documents/00 Mojtaba/08 OX2 BESS/Input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\341510moja\Documents\GitHub\BESS-V02\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{4312615B-9105-4845-BC97-537A514CF5B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D663209A-5C4B-46A8-BBB2-6E3C5A4B5C58}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE7EBF1F-60C3-4A05-A9AD-C1CD7F6289FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{B1C603C0-A6AC-4D65-855B-4F102A64A3F9}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B1C603C0-A6AC-4D65-855B-4F102A64A3F9}"/>
   </bookViews>
   <sheets>
-    <sheet name="generator" sheetId="1" r:id="rId1"/>
-    <sheet name="scenario" sheetId="2" r:id="rId2"/>
-    <sheet name="solver_settings" sheetId="3" r:id="rId3"/>
+    <sheet name="Inputs" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="87">
   <si>
     <t>unit</t>
   </si>
@@ -305,6 +303,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="d/mm/yyyy;@"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -349,11 +350,20 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -362,25 +372,77 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -400,9 +462,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -440,7 +502,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -546,7 +608,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -688,7 +750,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -696,556 +758,488 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF8ADB6-9146-4145-B9FF-74797635B18C}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="38.44140625" customWidth="1"/>
+    <col min="1" max="1" width="24.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="E1" s="7"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="3">
         <v>128</v>
       </c>
-      <c r="D2" s="5" t="s">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3">
+      <c r="D3" s="3">
         <v>-40</v>
       </c>
-      <c r="D3" s="5" t="s">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4">
+      <c r="D4" s="3">
         <v>128</v>
       </c>
-      <c r="D4" s="5" t="s">
+    </row>
+    <row r="5" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5">
+      <c r="D5" s="3">
         <v>40</v>
       </c>
-      <c r="D5" s="5" t="s">
+    </row>
+    <row r="6" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6">
+      <c r="D6" s="3">
         <v>-40</v>
       </c>
-      <c r="D6" s="5" t="s">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.95189999999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.97160000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" s="3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="4"/>
+      <c r="D28" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7">
-        <v>160</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8">
-        <v>0.1</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9">
-        <v>0.9</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10">
-        <v>0.85</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11">
-        <v>0.95189999999999997</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C12">
-        <v>0.97160000000000002</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>80</v>
-      </c>
-      <c r="D13" s="5"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C15" t="s">
-        <v>84</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>72</v>
+      <c r="D29" s="3">
+        <f>Inputs!D16-Inputs!D19</f>
+        <v>45657.7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D30" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31" s="14">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32" s="13"/>
+      <c r="D32" s="14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" s="13"/>
+      <c r="D33" s="15" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="B34" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" s="13"/>
+      <c r="D34" s="14" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{540789BF-14A3-4D41-88E5-1399920A3446}">
-  <dimension ref="A1:D15"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="2" width="36.77734375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="14.109375" customWidth="1"/>
-    <col min="4" max="4" width="16.77734375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="D3" s="5"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5">
-        <v>0.3</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6">
-        <v>0.3</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C7">
-        <v>0.05</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8" s="5"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9">
-        <v>0.15</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C11">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C12">
-        <v>100</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13">
-        <v>80</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" s="5"/>
-    </row>
-    <row r="15" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C15">
-        <f>generator!C2-generator!C5</f>
-        <v>88</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F944AE0-47E6-4EA7-B9A2-CA01F1555EAD}">
-  <dimension ref="A1:D6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="27.88671875" customWidth="1"/>
-    <col min="2" max="2" width="54.21875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="65.44140625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2">
-        <v>30</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3">
-        <v>30</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" s="5"/>
-    </row>
-    <row r="5" spans="1:4" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D5" s="5"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C6" t="s">
-        <v>85</v>
-      </c>
-      <c r="D6" s="5"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
